--- a/datasets/Brasileirao/match_history/teams/bahia.xlsx
+++ b/datasets/Brasileirao/match_history/teams/bahia.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P220"/>
+  <dimension ref="A1:R220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>194</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8236579042685769</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-04-24</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45040</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>185</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8311042838521256</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45047</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>178</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8369424234887681</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>172</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.8419791731684999</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>169</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8445089033860343</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>166</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8470462341893996</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>159</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8529963589691315</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-05-28</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>151</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8598476986592055</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>145</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8650222931107413</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>138</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8710986917457983</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>127</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.880733672597157</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>124</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8833798408827509</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>117</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8895851931634113</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>110</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8958341352965282</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>102</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9030295516688768</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>96</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9084640160687062</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-07-30</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45137</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.9157608767233256</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>81</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9221936914446081</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>74</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9286716938412872</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-08-20</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45158</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>67</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.9351952013367766</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>60</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9417645335842487</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>53</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.9483800124822982</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023-09-14</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45183</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>42</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9588697805724845</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45187</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>38</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.9627129408911995</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45199</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.9743350896087494</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2023-10-07</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>45206</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>19</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.981179362242806</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45217</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.9920319148370607</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2023-10-21</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45220</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9950124791926823</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2023-10-25</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.999000499833375</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2021-05-29</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44345</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>880</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4147829116815814</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2021-06-05</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44352</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>873</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4176965779979988</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2021-06-13</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44360</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>865</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.4210515526273212</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2021-06-17</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44364</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>861</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.4227391317459628</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2021-06-20</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44367</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>858</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.4240092533710473</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2021-06-24</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44371</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>854</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4257086869858502</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44374</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>851</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.4269877306530259</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2021-06-30</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>848</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.4282706172126597</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2021-07-04</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44381</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>844</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.4299871304192398</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2021-07-07</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>44384</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>841</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.4312790286889785</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2021-07-10</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>44387</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>838</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.4325748084728867</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2021-07-18</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>44395</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>830</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4360492863215356</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2021-07-25</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44402</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>823</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.4391123395044697</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2021-08-01</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44409</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>816</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.4421969092798986</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2021-08-07</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44415</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>810</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.4448580662229411</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2021-08-15</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>44423</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>802</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.4484312042481095</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2021-08-21</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>44429</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>796</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.4511298794030423</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>44438</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>787</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.4552083740136159</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2021-09-04</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>44443</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>782</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4574901154837331</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>44450</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>775</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.4607037809989658</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2021-09-18</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>44457</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>768</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.4639400210916467</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>44465</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>760</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.4676664270099092</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2021-10-05</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>44474</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>751</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.471894422292842</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2021-10-09</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>44478</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>747</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.4737857801759698</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2021-10-12</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>44481</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>744</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.4752092716861445</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2021-10-16</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>44485</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>740</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.4771139155210344</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2021-10-24</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>44493</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>732</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.480946135285778</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2021-10-27</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>44496</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>729</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.4823911401151259</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2021-10-30</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>44499</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>726</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.483840486467991</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2021-11-07</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>44507</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>718</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4877267346257312</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2021-11-11</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>44511</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>714</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.4896815485857362</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2021-11-18</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>44518</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>707</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.4931213446662958</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2021-11-21</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>44521</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>704</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.494602929967057</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2021-11-26</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>44526</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>699</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.4970821374706377</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2021-11-29</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>44529</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>696</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.4985756229912165</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2021-12-02</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>44532</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>693</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.5000735956957676</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2021-12-05</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>44535</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>690</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.5015760690660555</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2021-12-09</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>44539</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>686</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.5035863913063714</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2020-08-12</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>44055</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>1170</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.310366941265485</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2020-08-16</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>44059</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>1166</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.311610895279971</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>44063</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>1162</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.3128598350754292</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2020-08-23</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>44066</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>1159</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.3137998238588391</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2020-08-29</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>44072</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>1153</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.3156882825125808</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2020-09-02</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>44076</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>1149</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.3169535645196029</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>44080</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>1145</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.3182239177904191</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2020-09-10</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>44084</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>1141</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.3194993626507087</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2020-09-13</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>44087</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5378,12 +5690,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>1138</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3204592999246187</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2020-09-16</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>44090</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5442,12 +5758,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>1135</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.3214221213343914</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2020-09-26</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>44100</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5506,12 +5826,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>1125</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.3246524673583497</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>44104</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5570,12 +5894,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>1121</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.3259536779139474</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2020-10-04</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>44108</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5634,12 +5962,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>1117</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.3272601037353453</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2020-10-07</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>44111</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5698,12 +6030,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>1114</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.3282433581907938</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2020-10-11</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>44115</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5762,12 +6098,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>1110</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.3295589610751891</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2020-10-16</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>44120</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5826,12 +6166,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>1105</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.331210882241981</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2020-10-19</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>44123</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5890,12 +6234,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>1102</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.3322060068292444</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2020-11-01</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>44136</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5954,12 +6302,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>1089</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.336552878364737</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2020-11-08</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>44143</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6018,12 +6370,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>1082</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.3389170133321328</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2020-11-11</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>44146</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6082,12 +6438,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>1079</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.3399352910249603</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2020-11-16</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>44151</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6146,12 +6506,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>1074</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.3416392237620695</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2020-11-20</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>44155</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6210,12 +6574,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>1070</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.3430085174187066</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2020-11-28</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>44163</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6274,12 +6642,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>1062</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.3457635911593078</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2020-12-05</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>44170</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6338,12 +6710,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>1055</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.3481924273061976</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2020-12-12</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6402,12 +6778,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>1048</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.3506383249516929</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2020-12-20</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>44185</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6466,12 +6846,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>1040</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.3534546819587802</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2020-12-27</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>44192</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6530,12 +6914,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>1033</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.3559375446134354</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>44202</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6594,12 +6982,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>1023</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.3595147764083289</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2021-01-10</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>44206</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6658,12 +7050,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>1019</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.3609557154708356</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2021-01-20</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>44216</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6722,12 +7118,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>1009</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.3645833807213029</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2021-01-24</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>44220</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6786,12 +7186,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>1005</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.3660446348040153</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2021-01-28</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>44224</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6850,12 +7254,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>1001</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.3675117456086935</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2021-01-31</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>44227</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6914,12 +7322,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>998</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.3686159363034188</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2021-02-03</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>44230</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6978,12 +7390,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>995</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.369723444544059</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2021-02-06</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>44233</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -7042,12 +7458,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>992</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.3708342802981957</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2021-02-13</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>44240</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7106,12 +7526,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>985</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.3734392269366609</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2021-02-20</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>44247</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7170,12 +7594,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>978</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.3760624721719651</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2021-02-25</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>44252</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7234,12 +7662,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>973</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.3779474931581651</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>43583</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7298,12 +7730,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>1642</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.1935924699078839</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2019-05-02</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>43587</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7362,12 +7798,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>1638</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.1943683905943277</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2019-05-05</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>43590</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7426,12 +7866,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>1635</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1949523712991825</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2019-05-12</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>43597</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7490,12 +7934,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>1628</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.1963218253956815</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2019-05-19</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>43604</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7554,12 +8002,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>1621</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.1977008993009057</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2019-05-26</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>43611</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7618,12 +8070,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>1614</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.1990896605897524</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2019-06-01</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>43617</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7682,12 +8138,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>1608</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.2002877893451731</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2019-06-08</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>43624</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7746,12 +8206,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>1601</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.2016947223912788</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2019-06-12</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>43628</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7810,12 +8274,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>1597</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.2025031169921865</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2019-07-13</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>43659</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7874,12 +8342,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q116" t="n">
+        <v>1566</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.2088790296692769</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2019-07-20</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>43666</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7938,12 +8410,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q117" t="n">
+        <v>1559</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.2103463123750325</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2019-07-28</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>43674</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -8002,12 +8478,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q118" t="n">
+        <v>1551</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.2120358319415374</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2019-08-04</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>43681</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -8066,12 +8546,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q119" t="n">
+        <v>1544</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.2135252897856346</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2019-08-11</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>43688</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -8130,12 +8614,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q120" t="n">
+        <v>1537</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.2150252104116543</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2019-08-18</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>43695</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -8194,12 +8682,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q121" t="n">
+        <v>1530</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.2165356673160071</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2019-08-24</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>43701</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -8258,12 +8750,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q122" t="n">
+        <v>1524</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0.2178387867689058</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>43708</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -8322,12 +8818,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q123" t="n">
+        <v>1517</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.2193690078015048</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2019-09-07</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>43715</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8386,12 +8886,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q124" t="n">
+        <v>1510</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.2209099779593782</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2019-09-15</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>43723</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8450,12 +8954,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q125" t="n">
+        <v>1502</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.2226843457910951</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2019-09-21</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>43729</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8514,12 +9022,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q126" t="n">
+        <v>1496</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.2240244682127417</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2019-09-25</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>43733</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8578,12 +9090,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q127" t="n">
+        <v>1492</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.2249223606733242</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2019-09-30</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>43738</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -8642,12 +9158,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q128" t="n">
+        <v>1487</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.226049788697945</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>43743</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -8706,12 +9226,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q129" t="n">
+        <v>1482</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.2271828679790567</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2019-10-09</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>43747</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -8770,12 +9294,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q130" t="n">
+        <v>1478</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.2280934193396259</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2019-10-12</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>43750</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -8834,12 +9362,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q131" t="n">
+        <v>1475</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.2287787270452224</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2019-10-16</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>43754</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8898,12 +9430,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q132" t="n">
+        <v>1471</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.2296956746259683</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2019-10-21</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>43759</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8962,12 +9498,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q133" t="n">
+        <v>1466</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.2308470289863452</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2019-10-26</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>43764</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -9026,12 +9566,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q134" t="n">
+        <v>1461</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0.23200415453447</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>43769</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -9090,12 +9634,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q135" t="n">
+        <v>1456</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0.2331670801985418</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>43772</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -9154,12 +9702,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q136" t="n">
+        <v>1453</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0.2338676317410376</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2019-11-06</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>43775</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -9218,12 +9770,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q137" t="n">
+        <v>1450</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.2345702880937977</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>43779</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -9282,12 +9838,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q138" t="n">
+        <v>1446</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.2355104483130648</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2019-11-17</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>43786</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -9346,12 +9906,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q139" t="n">
+        <v>1439</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.237164804944181</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2019-11-24</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>43793</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -9410,12 +9974,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q140" t="n">
+        <v>1432</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0.2388307826981924</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2019-11-27</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>43796</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -9474,12 +10042,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q141" t="n">
+        <v>1429</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0.2395483508603542</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2019-12-01</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>43800</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -9538,12 +10110,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q142" t="n">
+        <v>1425</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0.2405084632083421</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2019-12-05</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>43804</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -9602,12 +10178,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q143" t="n">
+        <v>1421</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0.2414724236968722</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2019-12-08</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>43807</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9666,12 +10246,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q144" t="n">
+        <v>1418</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.2421979286813109</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2018-04-15</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>43205</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -9726,12 +10310,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q145" t="n">
+        <v>2020</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.1326554650801217</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2018-04-21</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>43211</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -9786,12 +10374,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q146" t="n">
+        <v>2014</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0.1334537904517426</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -9846,12 +10438,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q147" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2018-05-06</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>43226</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9906,12 +10502,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q148" t="n">
+        <v>1999</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0.1354706862100524</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -9966,12 +10566,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q149" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2018-05-19</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>43239</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -10026,12 +10630,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q150" t="n">
+        <v>1986</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.1372433021702533</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -10086,12 +10694,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q151" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2018-05-31</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>43251</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -10146,12 +10758,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q152" t="n">
+        <v>1974</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0.138900142958987</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2018-06-03</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>43254</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -10206,12 +10822,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q153" t="n">
+        <v>1971</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0.139317469064027</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2018-06-07</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>43258</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -10266,12 +10886,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q154" t="n">
+        <v>1967</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.1398758549675758</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -10326,12 +10950,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q155" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -10386,12 +11014,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q156" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2018-07-19</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>43300</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -10446,12 +11078,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q157" t="n">
+        <v>1925</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.1458757568562274</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -10506,12 +11142,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q158" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2018-07-30</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>43311</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -10566,12 +11206,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q159" t="n">
+        <v>1914</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.1474892481142275</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -10626,12 +11270,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q160" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2018-08-11</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>43323</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -10686,12 +11334,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q161" t="n">
+        <v>1902</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.1492697809221031</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -10746,12 +11398,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q162" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -10806,12 +11462,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q163" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -10866,12 +11526,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q164" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2018-08-29</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>43341</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -10926,12 +11590,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q165" t="n">
+        <v>1884</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.1519809644287009</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -10986,12 +11654,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q166" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -11046,12 +11718,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q167" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2018-09-08</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>43351</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -11106,12 +11782,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q168" t="n">
+        <v>1874</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0.1535083985148223</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>43359</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -11166,12 +11846,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q169" t="n">
+        <v>1866</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.1547413910973175</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2018-09-24</t>
-        </is>
+      <c r="A170" s="2" t="n">
+        <v>43367</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -11226,12 +11910,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q170" t="n">
+        <v>1858</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0.1559842871816614</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2018-09-29</t>
-        </is>
+      <c r="A171" s="2" t="n">
+        <v>43372</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -11286,12 +11974,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q171" t="n">
+        <v>1853</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0.1567661616748983</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2018-10-06</t>
-        </is>
+      <c r="A172" s="2" t="n">
+        <v>43379</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -11346,12 +12038,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q172" t="n">
+        <v>1846</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0.1578673745550876</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2018-10-13</t>
-        </is>
+      <c r="A173" s="2" t="n">
+        <v>43386</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -11406,12 +12102,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q173" t="n">
+        <v>1839</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0.1589763229682169</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2018-10-20</t>
-        </is>
+      <c r="A174" s="2" t="n">
+        <v>43393</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -11466,12 +12166,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q174" t="n">
+        <v>1832</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0.1600930612529801</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A175" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -11526,12 +12230,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q175" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A176" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -11586,12 +12294,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q176" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
+      <c r="A177" s="2" t="n">
+        <v>43415</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -11646,12 +12358,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q177" t="n">
+        <v>1810</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.163654136802704</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A178" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -11706,12 +12422,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q178" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2018-11-17</t>
-        </is>
+      <c r="A179" s="2" t="n">
+        <v>43421</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11766,12 +12486,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q179" t="n">
+        <v>1804</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0.1646390132983796</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A180" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -11826,12 +12550,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q180" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="A181" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -11886,12 +12614,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q181" t="n">
+        <v>1796</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0.1659614079305314</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A182" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -11946,12 +12678,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q182" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2017-05-14</t>
-        </is>
+      <c r="A183" s="2" t="n">
+        <v>42869</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -12006,12 +12742,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q183" t="n">
+        <v>2356</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0.09479866045903014</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2017-05-21</t>
-        </is>
+      <c r="A184" s="2" t="n">
+        <v>42876</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -12066,12 +12806,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q184" t="n">
+        <v>2349</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0.0954645790782451</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2017-05-28</t>
-        </is>
+      <c r="A185" s="2" t="n">
+        <v>42883</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -12126,12 +12870,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q185" t="n">
+        <v>2342</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0.09613517548093582</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2017-06-05</t>
-        </is>
+      <c r="A186" s="2" t="n">
+        <v>42891</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -12186,12 +12934,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q186" t="n">
+        <v>2334</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0.09690734143036704</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2017-06-08</t>
-        </is>
+      <c r="A187" s="2" t="n">
+        <v>42894</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -12246,12 +12998,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q187" t="n">
+        <v>2331</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0.09719849997410487</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2017-06-12</t>
-        </is>
+      <c r="A188" s="2" t="n">
+        <v>42898</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -12306,12 +13062,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q188" t="n">
+        <v>2327</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0.0975880725998227</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2017-06-15</t>
-        </is>
+      <c r="A189" s="2" t="n">
+        <v>42901</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -12366,12 +13126,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q189" t="n">
+        <v>2324</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0.09788127640342477</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2017-06-18</t>
-        </is>
+      <c r="A190" s="2" t="n">
+        <v>42904</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -12426,12 +13190,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q190" t="n">
+        <v>2321</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0.09817536113917512</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2017-06-22</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>42908</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -12486,12 +13254,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q191" t="n">
+        <v>2317</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0.09856884903487283</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2017-06-25</t>
-        </is>
+      <c r="A192" s="2" t="n">
+        <v>42911</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -12546,12 +13318,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q192" t="n">
+        <v>2314</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0.09886499958569081</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2017-07-02</t>
-        </is>
+      <c r="A193" s="2" t="n">
+        <v>42918</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -12606,12 +13382,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q193" t="n">
+        <v>2307</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0.09955948243696745</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2017-07-09</t>
-        </is>
+      <c r="A194" s="2" t="n">
+        <v>42925</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -12666,12 +13446,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q194" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0.1002588437228037</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2017-07-12</t>
-        </is>
+      <c r="A195" s="2" t="n">
+        <v>42928</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -12726,12 +13510,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q195" t="n">
+        <v>2297</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0.1005600718702723</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2017-07-16</t>
-        </is>
+      <c r="A196" s="2" t="n">
+        <v>42932</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -12786,12 +13574,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q196" t="n">
+        <v>2293</v>
+      </c>
+      <c r="R196" t="n">
+        <v>0.1009631177120426</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2017-07-19</t>
-        </is>
+      <c r="A197" s="2" t="n">
+        <v>42935</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -12846,12 +13638,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q197" t="n">
+        <v>2290</v>
+      </c>
+      <c r="R197" t="n">
+        <v>0.1012664618538834</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2017-07-23</t>
-        </is>
+      <c r="A198" s="2" t="n">
+        <v>42939</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -12906,12 +13702,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q198" t="n">
+        <v>2286</v>
+      </c>
+      <c r="R198" t="n">
+        <v>0.1016723389142504</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2017-07-30</t>
-        </is>
+      <c r="A199" s="2" t="n">
+        <v>42946</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -12966,12 +13766,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q199" t="n">
+        <v>2279</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0.102386542081408</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2017-08-02</t>
-        </is>
+      <c r="A200" s="2" t="n">
+        <v>42949</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -13026,12 +13830,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q200" t="n">
+        <v>2276</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0.1026941629081768</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2017-08-06</t>
-        </is>
+      <c r="A201" s="2" t="n">
+        <v>42953</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -13086,12 +13894,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q201" t="n">
+        <v>2272</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0.1031057622096134</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2017-08-13</t>
-        </is>
+      <c r="A202" s="2" t="n">
+        <v>42960</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -13146,12 +13958,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q202" t="n">
+        <v>2265</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0.1038300345407969</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2017-08-20</t>
-        </is>
+      <c r="A203" s="2" t="n">
+        <v>42967</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -13206,12 +14022,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q203" t="n">
+        <v>2258</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0.1045593945644476</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2017-08-27</t>
-        </is>
+      <c r="A204" s="2" t="n">
+        <v>42974</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -13266,12 +14086,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q204" t="n">
+        <v>2251</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0.1052938780193526</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2017-09-11</t>
-        </is>
+      <c r="A205" s="2" t="n">
+        <v>42989</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -13326,12 +14150,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q205" t="n">
+        <v>2236</v>
+      </c>
+      <c r="R205" t="n">
+        <v>0.1068851912014987</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2017-09-17</t>
-        </is>
+      <c r="A206" s="2" t="n">
+        <v>42995</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -13386,12 +14214,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q206" t="n">
+        <v>2230</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0.107528430135795</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2017-09-24</t>
-        </is>
+      <c r="A207" s="2" t="n">
+        <v>43002</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -13446,12 +14278,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q207" t="n">
+        <v>2223</v>
+      </c>
+      <c r="R207" t="n">
+        <v>0.1082837697510982</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2017-09-30</t>
-        </is>
+      <c r="A208" s="2" t="n">
+        <v>43008</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -13506,12 +14342,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q208" t="n">
+        <v>2217</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0.1089354253815303</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2017-10-12</t>
-        </is>
+      <c r="A209" s="2" t="n">
+        <v>43020</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -13566,12 +14406,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q209" t="n">
+        <v>2205</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0.1102505253044852</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2017-10-15</t>
-        </is>
+      <c r="A210" s="2" t="n">
+        <v>43023</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -13626,12 +14470,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q210" t="n">
+        <v>2202</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0.1105817735042622</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2017-10-19</t>
-        </is>
+      <c r="A211" s="2" t="n">
+        <v>43027</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -13686,12 +14534,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q211" t="n">
+        <v>2198</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0.1110249864331867</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2017-10-22</t>
-        </is>
+      <c r="A212" s="2" t="n">
+        <v>43030</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -13746,12 +14598,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q212" t="n">
+        <v>2195</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0.1113585615049126</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2017-10-29</t>
-        </is>
+      <c r="A213" s="2" t="n">
+        <v>43037</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -13806,12 +14662,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q213" t="n">
+        <v>2188</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0.1121408060973577</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2017-11-05</t>
-        </is>
+      <c r="A214" s="2" t="n">
+        <v>43044</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -13866,12 +14726,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q214" t="n">
+        <v>2181</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0.1129285456117392</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2017-11-08</t>
-        </is>
+      <c r="A215" s="2" t="n">
+        <v>43047</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -13926,12 +14790,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q215" t="n">
+        <v>2178</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0.1132678399355895</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2017-11-12</t>
-        </is>
+      <c r="A216" s="2" t="n">
+        <v>43051</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -13986,12 +14854,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q216" t="n">
+        <v>2174</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0.1137218186474508</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2017-11-16</t>
-        </is>
+      <c r="A217" s="2" t="n">
+        <v>43055</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -14046,12 +14918,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q217" t="n">
+        <v>2170</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0.1141776169108365</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2017-11-19</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>43058</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -14106,12 +14982,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q218" t="n">
+        <v>2167</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0.1145206640750299</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2017-11-26</t>
-        </is>
+      <c r="A219" s="2" t="n">
+        <v>43065</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -14166,12 +15046,16 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q219" t="n">
+        <v>2160</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0.1153251210380625</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2017-12-03</t>
-        </is>
+      <c r="A220" s="2" t="n">
+        <v>43072</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -14226,6 +15110,12 @@
           <t>bahia</t>
         </is>
       </c>
+      <c r="Q220" t="n">
+        <v>2153</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0.1161352289551006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
